--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koissi/Desktop/WAVE_project/CBIG/CIBiG_R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosericazondekon/Documents/CiBIGR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AD9DFE5-0084-5C45-B3BF-0AB3968B53C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1C6456-477C-FD4B-AEE8-A03A829B48F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13120" windowHeight="6620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="15800" windowHeight="13060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>student</t>
   </si>
@@ -38,12 +38,6 @@
   </si>
   <si>
     <t>timestamp</t>
-  </si>
-  <si>
-    <t>Washington Peter</t>
-  </si>
-  <si>
-    <t>2025-12-01 15:32:30.167715</t>
   </si>
 </sst>
 </file>
@@ -377,9 +371,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -403,26 +399,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosericazondekon/Documents/CiBIGR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1C6456-477C-FD4B-AEE8-A03A829B48F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E199BD3-C80C-9E40-A196-74FC032FCAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="15800" windowHeight="13060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="17140" windowHeight="13600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosericazondekon/Documents/CiBIGR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E199BD3-C80C-9E40-A196-74FC032FCAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74713192-8CCE-5446-A041-86224BDC47B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="17140" windowHeight="13600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="13120" windowHeight="6100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosericazondekon/Documents/CiBIGR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74713192-8CCE-5446-A041-86224BDC47B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D754B4A-EDD2-0C4C-8FF3-B0CBB9F11C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="800" windowWidth="13120" windowHeight="6100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,7 +374,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
